--- a/data/trans_orig/P02E$contratada-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P02E$contratada-Dificultad-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4114</v>
+        <v>4318</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01047947752926481</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05249201162309027</v>
+        <v>0.05509260291129966</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -764,19 +764,19 @@
         <v>6196</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2232</v>
+        <v>2219</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13750</v>
+        <v>14259</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02244120781414193</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008082588212929334</v>
+        <v>0.008036744249686917</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04980167321393323</v>
+        <v>0.0516447783654712</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>7017</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2835</v>
+        <v>2715</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15255</v>
+        <v>15401</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01979621642317107</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007998904205510735</v>
+        <v>0.007659510856401535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04303478633784991</v>
+        <v>0.0434478515438387</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>74944</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69620</v>
+        <v>69295</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>77544</v>
+        <v>77519</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9561510766705196</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8882313705353275</v>
+        <v>0.8840804321365716</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.989320382665097</v>
+        <v>0.9890085239972167</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>245</v>
@@ -835,19 +835,19 @@
         <v>257795</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>246634</v>
+        <v>247713</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>265160</v>
+        <v>264901</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9337321349054196</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.893308487535178</v>
+        <v>0.8972135342349432</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9604083229636471</v>
+        <v>0.9594703361944477</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>315</v>
@@ -856,19 +856,19 @@
         <v>332739</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>322276</v>
+        <v>321953</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>340459</v>
+        <v>340583</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9386894367799098</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9091727833513935</v>
+        <v>0.9082604402402863</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9604691930704702</v>
+        <v>0.9608169619759386</v>
       </c>
     </row>
     <row r="6">
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6039</v>
+        <v>5879</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02100635743109522</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07704948873835135</v>
+        <v>0.07500055042934896</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -906,19 +906,19 @@
         <v>9274</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4463</v>
+        <v>4914</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17495</v>
+        <v>17534</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03359114579105151</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01616355877749997</v>
+        <v>0.01779848066644905</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06336810460058917</v>
+        <v>0.0635084010673643</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -927,19 +927,19 @@
         <v>10921</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5895</v>
+        <v>5941</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18670</v>
+        <v>19391</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03080838309062865</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0166296087780362</v>
+        <v>0.01675941824540072</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0526707917378252</v>
+        <v>0.05470492070994973</v>
       </c>
     </row>
     <row r="7">
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5708</v>
+        <v>5429</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01236308836912045</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07282063375472103</v>
+        <v>0.06926894498442225</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -977,19 +977,19 @@
         <v>2826</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7684</v>
+        <v>8228</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0102355114893869</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003188842477542207</v>
+        <v>0.003192317744908848</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02783168197004849</v>
+        <v>0.02980178286374649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -998,19 +998,19 @@
         <v>3795</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9470</v>
+        <v>9546</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01070596370629054</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002763454789811875</v>
+        <v>0.002739003558787791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02671648209769473</v>
+        <v>0.02692945872066501</v>
       </c>
     </row>
     <row r="8">
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5057</v>
+        <v>6171</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004625707971286507</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02297365101875843</v>
+        <v>0.0280368332121949</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8821</v>
+        <v>9995</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008097609066628847</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02567977522654915</v>
+        <v>0.02909633044793246</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1073,19 +1073,19 @@
         <v>3800</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11388</v>
+        <v>11742</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00674174186302481</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001817198457806244</v>
+        <v>0.001812607434291407</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02020452545072976</v>
+        <v>0.02083214474537579</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>208017</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>200104</v>
+        <v>199565</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>213500</v>
+        <v>213665</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9450530225431965</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9091027674084748</v>
+        <v>0.9066549286805674</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9699655242905912</v>
+        <v>0.9707152577955281</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>307</v>
@@ -1123,19 +1123,19 @@
         <v>320753</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>309406</v>
+        <v>309060</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>329031</v>
+        <v>328270</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.933735375511232</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9007021302332722</v>
+        <v>0.8996958507355145</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9578320146011515</v>
+        <v>0.9556168810741138</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>508</v>
@@ -1144,19 +1144,19 @@
         <v>528770</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>514472</v>
+        <v>515481</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>538757</v>
+        <v>539490</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9381552094901415</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.912788777099055</v>
+        <v>0.9145782935949476</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9558754783258537</v>
+        <v>0.9571761913613538</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>11076</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6184</v>
+        <v>5509</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19686</v>
+        <v>18721</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05032126948551709</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0280963908454807</v>
+        <v>0.02502651249625577</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08943577259545551</v>
+        <v>0.08505315443928226</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1194,19 +1194,19 @@
         <v>19981</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12377</v>
+        <v>12930</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30612</v>
+        <v>30466</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05816701542213912</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03603013835435782</v>
+        <v>0.03763976267897653</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08911236181732993</v>
+        <v>0.08868777849641099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -1215,19 +1215,19 @@
         <v>31058</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21547</v>
+        <v>20922</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43029</v>
+        <v>42699</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05510304864683369</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03822845100143758</v>
+        <v>0.0371204390354338</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07634257107951133</v>
+        <v>0.07575807841962316</v>
       </c>
     </row>
     <row r="11">
@@ -1295,19 +1295,19 @@
         <v>7447</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2708</v>
+        <v>2788</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16066</v>
+        <v>16605</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02946344399764174</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01071542889640338</v>
+        <v>0.01102939147842632</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06356281756484816</v>
+        <v>0.06569467850454712</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1316,19 +1316,19 @@
         <v>3003</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8308</v>
+        <v>8544</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01046840397961938</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003413485564246294</v>
+        <v>0.003389787250772269</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02896656275086697</v>
+        <v>0.02978782947072706</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1337,19 +1337,19 @@
         <v>10450</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4890</v>
+        <v>4673</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21342</v>
+        <v>19740</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01936632605431409</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009063142970566752</v>
+        <v>0.008660405779190659</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03955162848218127</v>
+        <v>0.03658245947315704</v>
       </c>
     </row>
     <row r="13">
@@ -1366,19 +1366,19 @@
         <v>220820</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>207377</v>
+        <v>209291</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>230200</v>
+        <v>230896</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8736195661494145</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8204354863824572</v>
+        <v>0.8280087437387607</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9107320102003764</v>
+        <v>0.9134833585357538</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>250</v>
@@ -1387,19 +1387,19 @@
         <v>257912</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>246299</v>
+        <v>246133</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>266704</v>
+        <v>266158</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8991829937768592</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8586971835211997</v>
+        <v>0.8581173409626008</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9298359098332593</v>
+        <v>0.9279313574018483</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>462</v>
@@ -1408,19 +1408,19 @@
         <v>478731</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>463898</v>
+        <v>462046</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>492932</v>
+        <v>491685</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8872082157940128</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8597191341491139</v>
+        <v>0.8562856619789329</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9135250752648167</v>
+        <v>0.9112152397818211</v>
       </c>
     </row>
     <row r="14">
@@ -1437,19 +1437,19 @@
         <v>23607</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15347</v>
+        <v>15623</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33828</v>
+        <v>33630</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09339647702493972</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06071731481383248</v>
+        <v>0.06180844036961353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1338317280509421</v>
+        <v>0.1330507445491635</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -1458,19 +1458,19 @@
         <v>24899</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16408</v>
+        <v>17125</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35402</v>
+        <v>35530</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08680946082373532</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05720314563603664</v>
+        <v>0.05970310302656791</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1234261941195202</v>
+        <v>0.1238704022122271</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>48</v>
@@ -1479,19 +1479,19 @@
         <v>48507</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35863</v>
+        <v>36560</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>63016</v>
+        <v>63590</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08989504299715843</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06646358852806122</v>
+        <v>0.06775480656833588</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1167851182596281</v>
+        <v>0.1178488021776221</v>
       </c>
     </row>
     <row r="15">
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4963</v>
+        <v>5184</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.003520512828003996</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01963440299676376</v>
+        <v>0.02050850058508789</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5092</v>
+        <v>5028</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.003539141419786106</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01775210268907565</v>
+        <v>0.0175283185051224</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6730</v>
+        <v>5902</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003530415154514686</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01247145319257005</v>
+        <v>0.01093736066009242</v>
       </c>
     </row>
     <row r="16">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5502</v>
+        <v>5985</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02481980376949522</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07719280101114162</v>
+        <v>0.08397348199839035</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1604,19 +1604,19 @@
         <v>5745</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2239</v>
+        <v>2284</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12370</v>
+        <v>12600</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06616612550300106</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02578502542566592</v>
+        <v>0.02630579269483071</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1424726362863185</v>
+        <v>0.1451184967116801</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1625,19 +1625,19 @@
         <v>7514</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3655</v>
+        <v>3179</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15074</v>
+        <v>14973</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04752632453092399</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02311928098395842</v>
+        <v>0.02010727709089887</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09534490291987165</v>
+        <v>0.09470561415662768</v>
       </c>
     </row>
     <row r="17">
@@ -1654,19 +1654,19 @@
         <v>55305</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47534</v>
+        <v>47639</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61057</v>
+        <v>60882</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7759261888179766</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6669057239957698</v>
+        <v>0.6683697232254956</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.856632362228705</v>
+        <v>0.8541686323055923</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>72</v>
@@ -1675,19 +1675,19 @@
         <v>73040</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64933</v>
+        <v>65147</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>79047</v>
+        <v>79132</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8412202879543559</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7478574939103709</v>
+        <v>0.7503171232414797</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9104028594111715</v>
+        <v>0.9113860504999441</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>126</v>
@@ -1696,19 +1696,19 @@
         <v>128345</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>118028</v>
+        <v>118264</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>137077</v>
+        <v>138398</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.811784319734554</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7465315430913865</v>
+        <v>0.7480228673858081</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8670141455738108</v>
+        <v>0.8753698512212927</v>
       </c>
     </row>
     <row r="18">
@@ -1725,19 +1725,19 @@
         <v>14202</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8521</v>
+        <v>8587</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21749</v>
+        <v>21720</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1992540074125282</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1195483916517708</v>
+        <v>0.1204718811649861</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3051357340775865</v>
+        <v>0.3047322078680845</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1746,19 +1746,19 @@
         <v>7046</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2974</v>
+        <v>2986</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13450</v>
+        <v>13174</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08114577212021004</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03424994073178091</v>
+        <v>0.03438977801554838</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1549131736445196</v>
+        <v>0.1517236924379506</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -1767,19 +1767,19 @@
         <v>21248</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13672</v>
+        <v>13204</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31269</v>
+        <v>30650</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1343914758904687</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0864750465103974</v>
+        <v>0.0835156488168432</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1977804120321779</v>
+        <v>0.1938616668585683</v>
       </c>
     </row>
     <row r="19">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4990</v>
+        <v>5006</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01146781442243298</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05747093937904277</v>
+        <v>0.05765515627178576</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5004</v>
+        <v>4918</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006297879844053235</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03164824116649398</v>
+        <v>0.03110603852888611</v>
       </c>
     </row>
     <row r="20">
@@ -1863,19 +1863,19 @@
         <v>11056</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5722</v>
+        <v>5521</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20567</v>
+        <v>20135</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01775958264536911</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009191660675973228</v>
+        <v>0.008868046593541722</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03303696894215295</v>
+        <v>0.03234377386815042</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1884,19 +1884,19 @@
         <v>17725</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10461</v>
+        <v>10650</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27926</v>
+        <v>28248</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0178452934450228</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01053241245185515</v>
+        <v>0.01072196978612978</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02811559204184103</v>
+        <v>0.02844000475630664</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -1905,19 +1905,19 @@
         <v>28781</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18969</v>
+        <v>19239</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44279</v>
+        <v>43007</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01781227086449229</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01173961795709039</v>
+        <v>0.01190710961591892</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02740358734779903</v>
+        <v>0.02661668060358545</v>
       </c>
     </row>
     <row r="21">
@@ -1934,19 +1934,19 @@
         <v>559085</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>542587</v>
+        <v>542664</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>573754</v>
+        <v>572546</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8980826679944524</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8715806593728553</v>
+        <v>0.8717049529688351</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9216462408810336</v>
+        <v>0.9197055874119199</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>874</v>
@@ -1955,19 +1955,19 @@
         <v>909500</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>890332</v>
+        <v>891180</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>927185</v>
+        <v>924509</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.9156693934812011</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.8963714305599224</v>
+        <v>0.8972256921403829</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9334752013950613</v>
+        <v>0.9307809020569175</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1411</v>
@@ -1976,19 +1976,19 @@
         <v>1468585</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1443713</v>
+        <v>1444154</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1490079</v>
+        <v>1492647</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.9088935955537443</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.8935004278849465</v>
+        <v>0.8937737173081735</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9221960584315142</v>
+        <v>0.9237851742846734</v>
       </c>
     </row>
     <row r="22">
@@ -2005,19 +2005,19 @@
         <v>50532</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38164</v>
+        <v>37798</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65066</v>
+        <v>66206</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08117172985172194</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06130416811074238</v>
+        <v>0.06071734995944516</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1045189963071808</v>
+        <v>0.1063491084089317</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -2026,19 +2026,19 @@
         <v>61201</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46539</v>
+        <v>47410</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77041</v>
+        <v>77421</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06161574050953908</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0468550998139239</v>
+        <v>0.04773112786492335</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07756349140291412</v>
+        <v>0.07794667477572677</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>110</v>
@@ -2047,19 +2047,19 @@
         <v>111733</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>94654</v>
+        <v>91764</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>136993</v>
+        <v>135458</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06915025466079322</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05858069091735943</v>
+        <v>0.05679202579524265</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08478367797421038</v>
+        <v>0.08383361827135884</v>
       </c>
     </row>
     <row r="23">
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6579</v>
+        <v>6470</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002986019508456584</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01056779594601178</v>
+        <v>0.01039348070641783</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2097,19 +2097,19 @@
         <v>4837</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1798</v>
+        <v>1873</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10536</v>
+        <v>11543</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004869572564236991</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001810175501259376</v>
+        <v>0.001885858176227267</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01060736916052706</v>
+        <v>0.01162153393977438</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -2118,19 +2118,19 @@
         <v>6696</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2895</v>
+        <v>2920</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13139</v>
+        <v>13043</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004143878920970188</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001791506059917269</v>
+        <v>0.001806905266881787</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008131534197655233</v>
+        <v>0.008072401321023253</v>
       </c>
     </row>
     <row r="24">
@@ -2404,19 +2404,19 @@
         <v>3102</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8435</v>
+        <v>8243</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006038544078481584</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001859248575785917</v>
+        <v>0.001820675850915333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01642112154898397</v>
+        <v>0.01604883716137519</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -2425,19 +2425,19 @@
         <v>3102</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9229</v>
+        <v>8422</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003709689814315792</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001142109591213919</v>
+        <v>0.001139205733963077</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01103848374749166</v>
+        <v>0.01007252501459762</v>
       </c>
     </row>
     <row r="5">
@@ -2454,19 +2454,19 @@
         <v>305271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>294940</v>
+        <v>295507</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>311632</v>
+        <v>312198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9467182562817392</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.914679214682355</v>
+        <v>0.9164364389582496</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9664437419270346</v>
+        <v>0.9681990823385093</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>436</v>
@@ -2475,19 +2475,19 @@
         <v>472096</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>459816</v>
+        <v>457662</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>483268</v>
+        <v>481925</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9191157076805976</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8952079794597672</v>
+        <v>0.8910138173547445</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9408661286257425</v>
+        <v>0.938250290536879</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>725</v>
@@ -2496,19 +2496,19 @@
         <v>777367</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>760763</v>
+        <v>761167</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>791117</v>
+        <v>791846</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9297610407569401</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.909902452512997</v>
+        <v>0.9103858673288633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9462063838073324</v>
+        <v>0.9470784462762278</v>
       </c>
     </row>
     <row r="6">
@@ -2525,19 +2525,19 @@
         <v>13942</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7917</v>
+        <v>7580</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23225</v>
+        <v>23132</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0432370389308499</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02455338687381562</v>
+        <v>0.0235073017380102</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07202568531833245</v>
+        <v>0.07173932272692553</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -2546,19 +2546,19 @@
         <v>31307</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21562</v>
+        <v>22213</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43321</v>
+        <v>43650</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06095176490418315</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04197859269502934</v>
+        <v>0.04324627718246257</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08434099605065147</v>
+        <v>0.08498104957485422</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -2567,19 +2567,19 @@
         <v>45249</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33965</v>
+        <v>33235</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>60061</v>
+        <v>60290</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05411981756963635</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04062403131070376</v>
+        <v>0.03975082425847477</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07183472526648201</v>
+        <v>0.07210894053574335</v>
       </c>
     </row>
     <row r="7">
@@ -2596,19 +2596,19 @@
         <v>3239</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8684</v>
+        <v>9192</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01004470478741091</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003236681704463461</v>
+        <v>0.003203172885146454</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02693143036759986</v>
+        <v>0.02850772468003451</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2617,19 +2617,19 @@
         <v>7137</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3022</v>
+        <v>2952</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14627</v>
+        <v>13479</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01389398333673767</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005883932099766669</v>
+        <v>0.005746806412446331</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02847769598876584</v>
+        <v>0.02624244481747339</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -2638,19 +2638,19 @@
         <v>10375</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5193</v>
+        <v>5159</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18982</v>
+        <v>18289</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01240945185910777</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006210540739356131</v>
+        <v>0.006170653932156507</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02270337679573166</v>
+        <v>0.02187406102752428</v>
       </c>
     </row>
     <row r="8">
@@ -2671,19 +2671,19 @@
         <v>3060</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8344</v>
+        <v>8266</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01080003314431684</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003277781811378504</v>
+        <v>0.003267447869555964</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02944494853136638</v>
+        <v>0.02917028866013744</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -2692,19 +2692,19 @@
         <v>9102</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4321</v>
+        <v>4204</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18550</v>
+        <v>18353</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01926396450978401</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009145764789155998</v>
+        <v>0.008898119441489423</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03926193940713297</v>
+        <v>0.03884398677048535</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -2713,19 +2713,19 @@
         <v>12162</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6678</v>
+        <v>6378</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22761</v>
+        <v>20510</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01609079804035399</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008835204514042865</v>
+        <v>0.008438552665461894</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03011379744674029</v>
+        <v>0.02713502842639831</v>
       </c>
     </row>
     <row r="9">
@@ -2742,19 +2742,19 @@
         <v>256814</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>245691</v>
+        <v>245427</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>265281</v>
+        <v>265068</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9062977395199193</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.867043727833572</v>
+        <v>0.866114406767041</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9361792970619482</v>
+        <v>0.9354263444530708</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>407</v>
@@ -2763,19 +2763,19 @@
         <v>437826</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>424299</v>
+        <v>424048</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>447062</v>
+        <v>447983</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9266776351981114</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8980460511749677</v>
+        <v>0.8975153836516335</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9462245629028952</v>
+        <v>0.9481743778489883</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>650</v>
@@ -2784,19 +2784,19 @@
         <v>694640</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>676832</v>
+        <v>678749</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>707283</v>
+        <v>708515</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9190371193640193</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8954756622497755</v>
+        <v>0.8980121725356429</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9357641659947293</v>
+        <v>0.9373940666670345</v>
       </c>
     </row>
     <row r="10">
@@ -2813,19 +2813,19 @@
         <v>17679</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11041</v>
+        <v>11009</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27392</v>
+        <v>27152</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06238787274092242</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03896217083238362</v>
+        <v>0.03885145333063745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09666523269554946</v>
+        <v>0.09581896327175302</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -2834,19 +2834,19 @@
         <v>22390</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15019</v>
+        <v>14248</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33940</v>
+        <v>33250</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04738926033305792</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03178848103929349</v>
+        <v>0.03015596483588915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07183511233107881</v>
+        <v>0.07037581394558103</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -2855,19 +2855,19 @@
         <v>40069</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29728</v>
+        <v>28926</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54934</v>
+        <v>54728</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05301230852728035</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03933165915513474</v>
+        <v>0.03827039460603322</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07267927924641303</v>
+        <v>0.07240796900994219</v>
       </c>
     </row>
     <row r="11">
@@ -2884,19 +2884,19 @@
         <v>5813</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2050</v>
+        <v>2097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11574</v>
+        <v>12642</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02051435459484136</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007235600477544864</v>
+        <v>0.007399025899365683</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04084417441265045</v>
+        <v>0.04461199337642759</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -2905,19 +2905,19 @@
         <v>4147</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1051</v>
+        <v>1029</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10263</v>
+        <v>9700</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008778284043086755</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002224077099864431</v>
+        <v>0.002178012420347912</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02172265981487848</v>
+        <v>0.0205314340189854</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -2926,19 +2926,19 @@
         <v>9961</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4968</v>
+        <v>5066</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17845</v>
+        <v>18576</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0131781904163395</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00657269629804394</v>
+        <v>0.006702149752219055</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02361001265781936</v>
+        <v>0.02457722236021467</v>
       </c>
     </row>
     <row r="12">
@@ -2959,19 +2959,19 @@
         <v>5833</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2734</v>
+        <v>1930</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12684</v>
+        <v>11719</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02505207737637798</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01174404233428606</v>
+        <v>0.008290986804464086</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05447735093480247</v>
+        <v>0.05033549937966543</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -2980,19 +2980,19 @@
         <v>6066</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2040</v>
+        <v>2093</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11948</v>
+        <v>13058</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01727429160739263</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005808584138896484</v>
+        <v>0.005960190042264535</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0340237507621075</v>
+        <v>0.03718388022461926</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -3001,19 +3001,19 @@
         <v>11899</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6620</v>
+        <v>6085</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20490</v>
+        <v>20311</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02037503557427647</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01133596489273832</v>
+        <v>0.01041922458257705</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03508452731056204</v>
+        <v>0.03477848615462999</v>
       </c>
     </row>
     <row r="13">
@@ -3030,19 +3030,19 @@
         <v>211188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>201035</v>
+        <v>201360</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>218387</v>
+        <v>218459</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9070733897881464</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8634674727787158</v>
+        <v>0.8648611737923353</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9379950239249858</v>
+        <v>0.9383055040448883</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>300</v>
@@ -3051,19 +3051,19 @@
         <v>322148</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>311585</v>
+        <v>309063</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>332065</v>
+        <v>330886</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.917327152447399</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8872478922033158</v>
+        <v>0.8800687128083607</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9455661316436995</v>
+        <v>0.9422086896887216</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>501</v>
@@ -3072,19 +3072,19 @@
         <v>533335</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>518808</v>
+        <v>518131</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>545420</v>
+        <v>544925</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9132393190140948</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8883643855708803</v>
+        <v>0.887204609881043</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9339324636540003</v>
+        <v>0.9330845002571583</v>
       </c>
     </row>
     <row r="14">
@@ -3101,19 +3101,19 @@
         <v>10613</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5721</v>
+        <v>5833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18429</v>
+        <v>18645</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04558446407905194</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02457309006510819</v>
+        <v>0.02505324964913147</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07915351158664199</v>
+        <v>0.08008255846044234</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -3122,19 +3122,19 @@
         <v>18933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11289</v>
+        <v>11741</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28314</v>
+        <v>29944</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05391125863240399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03214476731758063</v>
+        <v>0.03343372366602593</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08062376079449288</v>
+        <v>0.08526763995013936</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>29</v>
@@ -3143,19 +3143,19 @@
         <v>29546</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19464</v>
+        <v>20156</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>40482</v>
+        <v>41869</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05059164316064024</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03332787825571477</v>
+        <v>0.03451319742862402</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06931756820267262</v>
+        <v>0.07169235539733577</v>
       </c>
     </row>
     <row r="15">
@@ -3172,19 +3172,19 @@
         <v>5190</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1928</v>
+        <v>1988</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11306</v>
+        <v>11684</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02229006875642361</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0082828105764559</v>
+        <v>0.008540545931534638</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.048560047001932</v>
+        <v>0.05018362368861397</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -3193,19 +3193,19 @@
         <v>5111</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11454</v>
+        <v>11194</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01455277140799614</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.005597651732734497</v>
+        <v>0.00558070351313061</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03261623712429376</v>
+        <v>0.03187607939191216</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>10</v>
@@ -3214,19 +3214,19 @@
         <v>10300</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>5276</v>
+        <v>5190</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>18521</v>
+        <v>18420</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01763737399100771</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.00903459616609821</v>
+        <v>0.008887604057630265</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0317144137089169</v>
+        <v>0.03154132065316369</v>
       </c>
     </row>
     <row r="16">
@@ -3247,19 +3247,19 @@
         <v>5848</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1966</v>
+        <v>1955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13884</v>
+        <v>14172</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04123061007915757</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01386198167605814</v>
+        <v>0.01378316113474928</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09787853873377383</v>
+        <v>0.09991035840673909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3268,19 +3268,19 @@
         <v>10350</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4906</v>
+        <v>4729</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19894</v>
+        <v>20723</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05961837883498221</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0282584119947819</v>
+        <v>0.0272414664651399</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1145952239042791</v>
+        <v>0.1193713722829081</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -3289,19 +3289,19 @@
         <v>16198</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8647</v>
+        <v>8732</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26387</v>
+        <v>27718</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05134991829563082</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02741256418389073</v>
+        <v>0.02768190006596638</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08364951652927176</v>
+        <v>0.0878693895222792</v>
       </c>
     </row>
     <row r="17">
@@ -3318,19 +3318,19 @@
         <v>124957</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>114781</v>
+        <v>114130</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132054</v>
+        <v>132138</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8809295677885653</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.809190709083941</v>
+        <v>0.8045991812969439</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.930958490877772</v>
+        <v>0.9315552444658134</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>138</v>
@@ -3339,19 +3339,19 @@
         <v>152037</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>139566</v>
+        <v>142049</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>159071</v>
+        <v>160906</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8757943984923244</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.803956848038518</v>
+        <v>0.8182617812366612</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9163101118857622</v>
+        <v>0.9268832013227195</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>253</v>
@@ -3360,19 +3360,19 @@
         <v>276994</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>263497</v>
+        <v>262418</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>288726</v>
+        <v>289228</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.878103539163642</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8353162983020932</v>
+        <v>0.8318944460227743</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9152954345094534</v>
+        <v>0.9168849343899014</v>
       </c>
     </row>
     <row r="18">
@@ -3389,19 +3389,19 @@
         <v>9042</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3966</v>
+        <v>3770</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16887</v>
+        <v>16769</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06374413459923099</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02796082140646575</v>
+        <v>0.02657745292873457</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1190512587220157</v>
+        <v>0.1182170130699133</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -3410,19 +3410,19 @@
         <v>7932</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3824</v>
+        <v>3657</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14268</v>
+        <v>13903</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04569319389102106</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02203046214939275</v>
+        <v>0.02106556960443285</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08218911724433994</v>
+        <v>0.08008573392666099</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -3431,19 +3431,19 @@
         <v>16974</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9828</v>
+        <v>10018</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>27322</v>
+        <v>26761</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05381019236571238</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03115504834706602</v>
+        <v>0.03175924047756323</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0866137885922597</v>
+        <v>0.08483455072720222</v>
       </c>
     </row>
     <row r="19">
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6901</v>
+        <v>7150</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01409568753304612</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04865195073791459</v>
+        <v>0.05040950661934778</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -3481,19 +3481,19 @@
         <v>3280</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9035</v>
+        <v>9785</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01889402878167228</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00572631500799691</v>
+        <v>0.005774219220849421</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05204239188728518</v>
+        <v>0.05636717722521847</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -3502,19 +3502,19 @@
         <v>5279</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2100</v>
+        <v>2011</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12165</v>
+        <v>11493</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01673635017501481</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006658175820653483</v>
+        <v>0.006376414336848081</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03856490209938029</v>
+        <v>0.03643438947022284</v>
       </c>
     </row>
     <row r="20">
@@ -3535,19 +3535,19 @@
         <v>14742</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8715</v>
+        <v>7820</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27249</v>
+        <v>24144</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01503487143873159</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008888667989334492</v>
+        <v>0.00797548598616795</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02779083767469137</v>
+        <v>0.02462484043224229</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -3556,19 +3556,19 @@
         <v>28619</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19039</v>
+        <v>19172</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41624</v>
+        <v>42791</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01894205273630567</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01260086563904828</v>
+        <v>0.01268941089300341</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02754917064311844</v>
+        <v>0.02832182121150427</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>39</v>
@@ -3577,19 +3577,19 @@
         <v>43361</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>32156</v>
+        <v>30727</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>59827</v>
+        <v>59495</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01740437215048002</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0129067954518734</v>
+        <v>0.01233348546355006</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02401364238746002</v>
+        <v>0.02388028707698741</v>
       </c>
     </row>
     <row r="21">
@@ -3606,19 +3606,19 @@
         <v>898230</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>878912</v>
+        <v>880100</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>914587</v>
+        <v>914721</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.9161049508210362</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8964024361415769</v>
+        <v>0.8976137515501029</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9327873449101296</v>
+        <v>0.9329242574370196</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1281</v>
@@ -3627,19 +3627,19 @@
         <v>1384108</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1359734</v>
+        <v>1361761</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1405125</v>
+        <v>1404062</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.9160871160555339</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.8999549189044426</v>
+        <v>0.9012969816213836</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9299975016799208</v>
+        <v>0.9292938623494448</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2129</v>
@@ -3648,19 +3648,19 @@
         <v>2282338</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2253434</v>
+        <v>2252177</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2310154</v>
+        <v>2309177</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.9160941349703415</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.9044926737963485</v>
+        <v>0.9039879559192917</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9272591563801327</v>
+        <v>0.9268669245623361</v>
       </c>
     </row>
     <row r="22">
@@ -3677,19 +3677,19 @@
         <v>51276</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38821</v>
+        <v>38155</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67249</v>
+        <v>66610</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05229589910548869</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03959405169699339</v>
+        <v>0.03891397893474222</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06858716642846414</v>
+        <v>0.06793569201054656</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>78</v>
@@ -3698,19 +3698,19 @@
         <v>80562</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64469</v>
+        <v>64574</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>99648</v>
+        <v>100113</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05332101603072462</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04266982133318647</v>
+        <v>0.04273908481516741</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06595330831219233</v>
+        <v>0.06626110784307705</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>128</v>
@@ -3719,19 +3719,19 @@
         <v>131838</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>109476</v>
+        <v>110372</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>153372</v>
+        <v>154439</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0529175788021744</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04394180270358309</v>
+        <v>0.04430160433927544</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0615612595385972</v>
+        <v>0.06198919201444036</v>
       </c>
     </row>
     <row r="23">
@@ -3748,19 +3748,19 @@
         <v>16241</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9484</v>
+        <v>9281</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26433</v>
+        <v>26263</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01656427863474356</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009672833054072655</v>
+        <v>0.009465821522364271</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02695873966058585</v>
+        <v>0.02678560611900682</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -3769,19 +3769,19 @@
         <v>19675</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12304</v>
+        <v>12077</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>29293</v>
+        <v>29882</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01302188098932516</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.008143495717428752</v>
+        <v>0.00799349324509107</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01938757094267689</v>
+        <v>0.01977784619753982</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>35</v>
@@ -3790,19 +3790,19 @@
         <v>35916</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>26056</v>
+        <v>24919</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>49377</v>
+        <v>49577</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01441600009253043</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01045832727617197</v>
+        <v>0.01000223683443975</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01981920455826751</v>
+        <v>0.0198994312953647</v>
       </c>
     </row>
     <row r="24">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7577</v>
+        <v>7677</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007465510069356213</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02590799426507947</v>
+        <v>0.02625139971204347</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -4084,19 +4084,19 @@
         <v>6482</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2424</v>
+        <v>2401</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13939</v>
+        <v>13201</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01442277072126747</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005393149398754633</v>
+        <v>0.005341939409300424</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03101420561577133</v>
+        <v>0.02937267936863765</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -4105,19 +4105,19 @@
         <v>8665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4316</v>
+        <v>4246</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16785</v>
+        <v>17257</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01168021024509069</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005817940546324993</v>
+        <v>0.005723706654962753</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02262495265345475</v>
+        <v>0.02326106712849712</v>
       </c>
     </row>
     <row r="5">
@@ -4134,19 +4134,19 @@
         <v>274926</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>265142</v>
+        <v>265485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281591</v>
+        <v>281749</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9400625067878497</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9066090836845235</v>
+        <v>0.9077802839823708</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9628528885977743</v>
+        <v>0.9633912755323103</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>393</v>
@@ -4155,19 +4155,19 @@
         <v>399074</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>385317</v>
+        <v>383493</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>411916</v>
+        <v>410333</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8879406064615726</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8573304968059148</v>
+        <v>0.8532731698921675</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9165131153997065</v>
+        <v>0.9129906603442807</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>650</v>
@@ -4176,19 +4176,19 @@
         <v>674000</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>657201</v>
+        <v>655232</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>688445</v>
+        <v>687878</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9084871219552538</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.885843665809289</v>
+        <v>0.8831896894047163</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9279573811588854</v>
+        <v>0.9271930729822554</v>
       </c>
     </row>
     <row r="6">
@@ -4205,19 +4205,19 @@
         <v>10404</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5283</v>
+        <v>5227</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18127</v>
+        <v>18635</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03557558934082656</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01806584454827706</v>
+        <v>0.01787350839744213</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06198359204779249</v>
+        <v>0.0637190206294571</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -4226,19 +4226,19 @@
         <v>37777</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26776</v>
+        <v>27326</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50106</v>
+        <v>50608</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08405344682165634</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05957637003292981</v>
+        <v>0.06080104043985998</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1114857642869932</v>
+        <v>0.1126025921963423</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>47</v>
@@ -4247,19 +4247,19 @@
         <v>48181</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>36021</v>
+        <v>37184</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>62425</v>
+        <v>63006</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06494341737923051</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04855320320216151</v>
+        <v>0.05012057481088376</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08414309857732385</v>
+        <v>0.08492636178924673</v>
       </c>
     </row>
     <row r="7">
@@ -4276,19 +4276,19 @@
         <v>6041</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2049</v>
+        <v>2726</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12523</v>
+        <v>12494</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02065673782556277</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007004993103982161</v>
+        <v>0.009321027147496769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04281940427197145</v>
+        <v>0.04272160333791442</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4297,19 +4297,19 @@
         <v>7125</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3144</v>
+        <v>3059</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14885</v>
+        <v>14749</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01585225880398667</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00699604499849429</v>
+        <v>0.006805990385661129</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0331181756328355</v>
+        <v>0.03281732472538176</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -4318,19 +4318,19 @@
         <v>13166</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7185</v>
+        <v>7909</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21935</v>
+        <v>22585</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01774619018480612</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009685123964616536</v>
+        <v>0.01066099066770555</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02956559970911232</v>
+        <v>0.03044180817704074</v>
       </c>
     </row>
     <row r="8">
@@ -4351,19 +4351,19 @@
         <v>5622</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1985</v>
+        <v>2007</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12453</v>
+        <v>12769</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02964906438460724</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01046685487735808</v>
+        <v>0.01058424174991605</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06567459474004711</v>
+        <v>0.06734260805391727</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -4372,19 +4372,19 @@
         <v>4927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1642</v>
+        <v>1352</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12144</v>
+        <v>12733</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01599803579006291</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005331877680146422</v>
+        <v>0.004389359036133898</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03943064562754466</v>
+        <v>0.04134333123958302</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -4393,19 +4393,19 @@
         <v>10549</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5184</v>
+        <v>4966</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19569</v>
+        <v>20413</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02119992794130983</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01041900872788021</v>
+        <v>0.009980979732378008</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03932686913526059</v>
+        <v>0.04102410102546838</v>
       </c>
     </row>
     <row r="9">
@@ -4422,19 +4422,19 @@
         <v>170681</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>161007</v>
+        <v>161141</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>177798</v>
+        <v>177840</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9001510646786453</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8491329147474312</v>
+        <v>0.8498378275770012</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9376849026250806</v>
+        <v>0.9379062330596597</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>273</v>
@@ -4443,19 +4443,19 @@
         <v>281352</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>270931</v>
+        <v>268456</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>290661</v>
+        <v>289944</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9135410417775899</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8797044673644652</v>
+        <v>0.8716660475453514</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9437656107792222</v>
+        <v>0.9414370022882361</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>439</v>
@@ -4464,19 +4464,19 @@
         <v>452034</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>437663</v>
+        <v>437579</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>463434</v>
+        <v>464857</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9084386265058049</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8795590396838622</v>
+        <v>0.8793887886893238</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9313490066694954</v>
+        <v>0.9342086937576844</v>
       </c>
     </row>
     <row r="10">
@@ -4493,19 +4493,19 @@
         <v>9858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4852</v>
+        <v>5055</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16647</v>
+        <v>18155</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05199121469360438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02559006873319684</v>
+        <v>0.02665965544284863</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08779254794512346</v>
+        <v>0.09574825115006454</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -4514,19 +4514,19 @@
         <v>19200</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11628</v>
+        <v>11771</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28467</v>
+        <v>30038</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06234100767014995</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03775581647253586</v>
+        <v>0.03821984715351914</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0924316565862565</v>
+        <v>0.09753280933012103</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -4535,19 +4535,19 @@
         <v>29058</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20021</v>
+        <v>19093</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40334</v>
+        <v>39229</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05839709190740373</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04023522336874856</v>
+        <v>0.03836984815110023</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08105725498405456</v>
+        <v>0.07883686114526844</v>
       </c>
     </row>
     <row r="11">
@@ -4564,19 +4564,19 @@
         <v>3453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9972</v>
+        <v>9445</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01820865624314316</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005346565325425533</v>
+        <v>0.005307469080682607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05259049720391436</v>
+        <v>0.04981381959336308</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8757</v>
+        <v>8619</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008119914762197283</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02843474519818249</v>
+        <v>0.02798427915860302</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -4606,19 +4606,19 @@
         <v>5953</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2005</v>
+        <v>2178</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12614</v>
+        <v>13207</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01196435364548155</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004028796136246458</v>
+        <v>0.004376656330218179</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02535016672301052</v>
+        <v>0.0265423274948579</v>
       </c>
     </row>
     <row r="12">
@@ -4639,19 +4639,19 @@
         <v>7640</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2964</v>
+        <v>3545</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13562</v>
+        <v>14474</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04037715433515505</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01566336783578741</v>
+        <v>0.01873668710595673</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07167255574246237</v>
+        <v>0.07649499388641991</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -4660,19 +4660,19 @@
         <v>7955</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3837</v>
+        <v>3677</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14955</v>
+        <v>14392</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03894094088094405</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0187848898896345</v>
+        <v>0.01799778376450457</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07321004686874258</v>
+        <v>0.07045088154417989</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -4681,19 +4681,19 @@
         <v>15595</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9064</v>
+        <v>8633</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24604</v>
+        <v>23925</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03963156878179123</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0230353648662285</v>
+        <v>0.02193801205336359</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0625263993089003</v>
+        <v>0.06080105906864921</v>
       </c>
     </row>
     <row r="13">
@@ -4710,19 +4710,19 @@
         <v>165773</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>155869</v>
+        <v>155423</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>174262</v>
+        <v>173652</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.876087049466391</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8237463971112731</v>
+        <v>0.8213872163392574</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9209478261405881</v>
+        <v>0.9177276163036993</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>171</v>
@@ -4731,19 +4731,19 @@
         <v>171750</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>160844</v>
+        <v>160029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>181077</v>
+        <v>181170</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8407649924464088</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7873769562422278</v>
+        <v>0.7833861863140182</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8864233822559046</v>
+        <v>0.8868797791007074</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>326</v>
@@ -4752,19 +4752,19 @@
         <v>337523</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>321931</v>
+        <v>322885</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>349829</v>
+        <v>350402</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8577502100836549</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8181256534200266</v>
+        <v>0.8205511898291973</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8890235358145688</v>
+        <v>0.8904792783119718</v>
       </c>
     </row>
     <row r="14">
@@ -4781,19 +4781,19 @@
         <v>14861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9024</v>
+        <v>8497</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23928</v>
+        <v>24207</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07853774316427646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04769311470236781</v>
+        <v>0.04490705993220299</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1264554090067608</v>
+        <v>0.1279281289610784</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -4802,19 +4802,19 @@
         <v>23663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15944</v>
+        <v>16059</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33740</v>
+        <v>34535</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1158386334106758</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07805271304485736</v>
+        <v>0.07861139732105026</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1651688844188103</v>
+        <v>0.1690603218907906</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -4823,19 +4823,19 @@
         <v>38524</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28248</v>
+        <v>27735</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52444</v>
+        <v>50964</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09790185983772942</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07178627556480173</v>
+        <v>0.0704830599211087</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1332754198503993</v>
+        <v>0.1295145447844412</v>
       </c>
     </row>
     <row r="15">
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5755</v>
+        <v>5211</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0049980530341774</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03041462364687156</v>
+        <v>0.02753864050632048</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5461</v>
+        <v>4272</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.004455433261971365</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02673146879610688</v>
+        <v>0.02091410113237274</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6552</v>
+        <v>6521</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.004716361296824445</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01665001770599398</v>
+        <v>0.01657275648803472</v>
       </c>
     </row>
     <row r="16">
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7316</v>
+        <v>7500</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02636607670801955</v>
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08876859518125148</v>
+        <v>0.09100889159496778</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -4948,19 +4948,19 @@
         <v>3175</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>0</v>
+        <v>989</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8606</v>
+        <v>8499</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02163977724602759</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0</v>
+        <v>0.006742800477349842</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05865587530097834</v>
+        <v>0.05792776532341275</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -4969,19 +4969,19 @@
         <v>5348</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2077</v>
+        <v>2068</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11942</v>
+        <v>11964</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02333966380007073</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009063256291259248</v>
+        <v>0.009026472861005268</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05211911810227405</v>
+        <v>0.05221487232693357</v>
       </c>
     </row>
     <row r="17">
@@ -4998,19 +4998,19 @@
         <v>77304</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71762</v>
+        <v>71103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80438</v>
+        <v>80427</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9380143220564737</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8707757496524617</v>
+        <v>0.8627762083369419</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9760489754374964</v>
+        <v>0.9759129267929089</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>114</v>
@@ -5019,19 +5019,19 @@
         <v>121171</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>109846</v>
+        <v>110064</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>129433</v>
+        <v>129588</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8258512610032773</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7486620289163213</v>
+        <v>0.7501484068541355</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8821617562015583</v>
+        <v>0.8832171123029858</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>185</v>
@@ -5040,19 +5040,19 @@
         <v>198475</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>186551</v>
+        <v>186760</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>207379</v>
+        <v>207148</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8661924371978749</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.81415445779044</v>
+        <v>0.8150633300848014</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.905051209357466</v>
+        <v>0.9040434524115024</v>
       </c>
     </row>
     <row r="18">
@@ -5069,19 +5069,19 @@
         <v>3972</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9328</v>
+        <v>9325</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0481935282380492</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01239837281275319</v>
+        <v>0.01236603940135622</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1131873555128621</v>
+        <v>0.1131557404440078</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -5090,19 +5090,19 @@
         <v>22377</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14564</v>
+        <v>14562</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33163</v>
+        <v>33040</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1525089617506951</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09926353613199673</v>
+        <v>0.09924745464987904</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2260220121192681</v>
+        <v>0.2251873194763045</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>25</v>
@@ -5111,19 +5111,19 @@
         <v>26348</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>17787</v>
+        <v>18201</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>37814</v>
+        <v>37415</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1149903059326837</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07762579912586377</v>
+        <v>0.07943374952538622</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1650314593897569</v>
+        <v>0.1632871231989958</v>
       </c>
     </row>
     <row r="19">
@@ -5191,19 +5191,19 @@
         <v>17618</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9971</v>
+        <v>10679</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27216</v>
+        <v>27088</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02337565344173964</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01322953283129762</v>
+        <v>0.01416919542648885</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03610975471643885</v>
+        <v>0.0359399697401743</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -5212,19 +5212,19 @@
         <v>22539</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14368</v>
+        <v>13941</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33552</v>
+        <v>33807</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02033440828298098</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01296262085605094</v>
+        <v>0.0125770987865893</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03027012532560351</v>
+        <v>0.03049992961996906</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>38</v>
@@ -5233,19 +5233,19 @@
         <v>40157</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28850</v>
+        <v>28280</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54320</v>
+        <v>54384</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02156536624221369</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01549324442106231</v>
+        <v>0.01518675985305778</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0291709881540103</v>
+        <v>0.02920568895001205</v>
       </c>
     </row>
     <row r="21">
@@ -5262,19 +5262,19 @@
         <v>688685</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>673325</v>
+        <v>672801</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>703703</v>
+        <v>703248</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.9137364038443194</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.893357638500381</v>
+        <v>0.8926621967117938</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9336618445596042</v>
+        <v>0.9330589086040015</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>951</v>
@@ -5283,19 +5283,19 @@
         <v>973347</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>948847</v>
+        <v>950669</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>993537</v>
+        <v>994539</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8781406440724744</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.8560367195384982</v>
+        <v>0.8576811269381536</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.896355728215665</v>
+        <v>0.8972601718376033</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1600</v>
@@ -5304,19 +5304,19 @@
         <v>1662032</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1633641</v>
+        <v>1633111</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1687923</v>
+        <v>1687969</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8925481914811064</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.8773018689087292</v>
+        <v>0.8770170004661292</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9064525494973824</v>
+        <v>0.9064771193714121</v>
       </c>
     </row>
     <row r="22">
@@ -5333,19 +5333,19 @@
         <v>39095</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28331</v>
+        <v>27538</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51478</v>
+        <v>51531</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05187091878315781</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03758970365889386</v>
+        <v>0.03653755808702146</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06830039628538674</v>
+        <v>0.06837091147694412</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>99</v>
@@ -5354,19 +5354,19 @@
         <v>103016</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>85923</v>
+        <v>84741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>124436</v>
+        <v>124503</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09294000447615723</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07751885095023113</v>
+        <v>0.07645257012909168</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1122649382612907</v>
+        <v>0.1123247750025205</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>138</v>
@@ -5375,19 +5375,19 @@
         <v>142112</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>120019</v>
+        <v>120824</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>167289</v>
+        <v>169446</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07631710323894078</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0644526387202444</v>
+        <v>0.06488504054400011</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08983816056740571</v>
+        <v>0.09099636854999875</v>
       </c>
     </row>
     <row r="23">
@@ -5404,19 +5404,19 @@
         <v>10440</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5413</v>
+        <v>5281</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18415</v>
+        <v>17684</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0138510020420736</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.007181950651828043</v>
+        <v>0.007006576825521761</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02443313199653158</v>
+        <v>0.02346236706443229</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -5425,19 +5425,19 @@
         <v>10536</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5128</v>
+        <v>5435</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18303</v>
+        <v>19432</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009505003683191345</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00462676703367491</v>
+        <v>0.004902990042848047</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01651292760983457</v>
+        <v>0.01753134674709488</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>20</v>
@@ -5446,19 +5446,19 @@
         <v>20975</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12913</v>
+        <v>13013</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31345</v>
+        <v>32509</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01126406649839103</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006934319311446953</v>
+        <v>0.006988058215052741</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01683300340460664</v>
+        <v>0.01745785579475011</v>
       </c>
     </row>
     <row r="24">
